--- a/заказы/статистика филиалы/2024/06,24/13,06,24 ПОКОМ КИ филиалы/дв 13,06,24 бррсч пок ки.xlsx
+++ b/заказы/статистика филиалы/2024/06,24/13,06,24 ПОКОМ КИ филиалы/дв 13,06,24 бррсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\13,06,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\06,24\13,06,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB17580-D1F6-4348-A4CD-A1BF7130E071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1748770F-CA50-479D-9FD4-F2BC67AC8522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,10 +958,10 @@
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
